--- a/js-reader/locale/7.xlsx
+++ b/js-reader/locale/7.xlsx
@@ -7,15 +7,40 @@
     <workbookView windowWidth="28000" windowHeight="11440" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="zh-CN" sheetId="1" r:id="rId1"/>
-    <sheet name="en-US" sheetId="2" r:id="rId2"/>
+    <sheet name="role" sheetId="3" r:id="rId1"/>
+    <sheet name="zh-CN" sheetId="1" r:id="rId2"/>
+    <sheet name="en-US" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
+  <si>
+    <t>chapterId</t>
+  </si>
+  <si>
+    <t>textId</t>
+  </si>
+  <si>
+    <t>roleId</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>0-0-0-1</t>
+  </si>
+  <si>
+    <t>测试sssss</t>
+  </si>
+  <si>
+    <t>0-0-0-2</t>
+  </si>
+  <si>
+    <t>1111122aaaa</t>
+  </si>
   <si>
     <t>年龄</t>
   </si>
@@ -46,10 +71,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -68,7 +93,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -78,6 +126,53 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -97,21 +192,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -122,46 +202,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -175,37 +216,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -220,187 +245,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -425,8 +450,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -434,11 +461,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -454,21 +494,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -492,7 +517,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -516,145 +541,145 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -987,40 +1012,55 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:B3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="3"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>18</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:4">
       <c r="A3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -1031,6 +1071,47 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1">
+        <v>18</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -1038,10 +1119,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1049,7 +1130,7 @@
         <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1057,7 +1138,7 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
